--- a/biology/Zoologie/Hypselodoris_iacula/Hypselodoris_iacula.xlsx
+++ b/biology/Zoologie/Hypselodoris_iacula/Hypselodoris_iacula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypselodoris  iacula est une espèce de nudibranche du genre  Hypselodoris.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale occidentale de l'Océan Pacifique, des eaux indonésiennes, thaïlandaises aux eaux philippines.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat correspond à la zone récifale externe sur les sommets ou sur les pentes jusqu'à 30 m de profondeur.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut mesurer plus de 10 cm.
 Le corps est allongé et de forme ovale, la jupe du manteau est étroite sauf sur la face antérieure ou elle forme un voile au-dessus de la cavité buccale.
@@ -609,7 +627,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet Hypselodoris est benthique et diurne, se déplace à vue sans crainte d'être pris pour une proie de par la présence de glandes défensives réparties dans les tissus du corps.
 </t>
@@ -640,7 +660,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypselodoris iacula se nourrit principalement d'éponges.
 </t>
